--- a/MAJ_identie_Patient/ig/StructureDefinition-sdo-task.xlsx
+++ b/MAJ_identie_Patient/ig/StructureDefinition-sdo-task.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T16:21:24+00:00</t>
+    <t>2024-12-11T17:05:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MAJ_identie_Patient/ig/StructureDefinition-sdo-task.xlsx
+++ b/MAJ_identie_Patient/ig/StructureDefinition-sdo-task.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T17:05:43+00:00</t>
+    <t>2024-12-11T17:21:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MAJ_identie_Patient/ig/StructureDefinition-sdo-task.xlsx
+++ b/MAJ_identie_Patient/ig/StructureDefinition-sdo-task.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T17:21:37+00:00</t>
+    <t>2024-12-11T17:52:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MAJ_identie_Patient/ig/StructureDefinition-sdo-task.xlsx
+++ b/MAJ_identie_Patient/ig/StructureDefinition-sdo-task.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T17:52:58+00:00</t>
+    <t>2024-12-11T20:59:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MAJ_identie_Patient/ig/StructureDefinition-sdo-task.xlsx
+++ b/MAJ_identie_Patient/ig/StructureDefinition-sdo-task.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T20:59:18+00:00</t>
+    <t>2024-12-11T22:03:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MAJ_identie_Patient/ig/StructureDefinition-sdo-task.xlsx
+++ b/MAJ_identie_Patient/ig/StructureDefinition-sdo-task.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T22:03:13+00:00</t>
+    <t>2024-12-11T22:12:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MAJ_identie_Patient/ig/StructureDefinition-sdo-task.xlsx
+++ b/MAJ_identie_Patient/ig/StructureDefinition-sdo-task.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T22:12:00+00:00</t>
+    <t>2024-12-13T11:21:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MAJ_identie_Patient/ig/StructureDefinition-sdo-task.xlsx
+++ b/MAJ_identie_Patient/ig/StructureDefinition-sdo-task.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T11:21:56+00:00</t>
+    <t>2024-12-13T19:14:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MAJ_identie_Patient/ig/StructureDefinition-sdo-task.xlsx
+++ b/MAJ_identie_Patient/ig/StructureDefinition-sdo-task.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T19:14:47+00:00</t>
+    <t>2024-12-16T16:13:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MAJ_identie_Patient/ig/StructureDefinition-sdo-task.xlsx
+++ b/MAJ_identie_Patient/ig/StructureDefinition-sdo-task.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T16:13:39+00:00</t>
+    <t>2024-12-16T16:20:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MAJ_identie_Patient/ig/StructureDefinition-sdo-task.xlsx
+++ b/MAJ_identie_Patient/ig/StructureDefinition-sdo-task.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T16:20:32+00:00</t>
+    <t>2024-12-16T16:51:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
